--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -109,7 +109,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Igor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ligne 102 style.css </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Igor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ligne 1664 bootstrap.css</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,6 +182,104 @@
         </r>
       </text>
     </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Igor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ligne 7912 bootsrap.css</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Igor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ligne 750 style.css</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Igor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ligne 1041 style.css</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Igor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ligne 17 font-awesome.css
+ligne 781, 795 et 800 style.css
+lignes 1866 à 1893 bootstrap.css</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E24" authorId="0" shapeId="0">
       <text>
         <r>
@@ -154,7 +300,55 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-ligne 17 font-awesome.css</t>
+ligne 676, 685, 704 et 721 style.css</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Igor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+lignes 2132, 2145, 2149, 2157 bootstrap.css</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Igor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ligne 41, 43 et 248 index.html</t>
         </r>
       </text>
     </comment>
@@ -163,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>Catégorie</t>
   </si>
@@ -252,12 +446,6 @@
     <t>Annuaire liste trop grand . Partenaires</t>
   </si>
   <si>
-    <t>Utilité des 1,132516</t>
-  </si>
-  <si>
-    <t>Pas de "Stong"</t>
-  </si>
-  <si>
     <t>Aucune variable</t>
   </si>
   <si>
@@ -267,9 +455,6 @@
     <t>Texte hors cadre en version mobile à cause des textes dans les images</t>
   </si>
   <si>
-    <t>Bouton + au centre des 4 photos non centré</t>
-  </si>
-  <si>
     <t>3e et 4e photo pas à 100%</t>
   </si>
   <si>
@@ -354,9 +539,6 @@
     <t>!important</t>
   </si>
   <si>
-    <t>meta name "keyword"</t>
-  </si>
-  <si>
     <t>La couleur de certains titres se fonde dans le background, grosse difficulté à lire</t>
   </si>
   <si>
@@ -364,13 +546,142 @@
   </si>
   <si>
     <t>Changement de la couleur du texte qui pose problème</t>
+  </si>
+  <si>
+    <t>html lang en "default"</t>
+  </si>
+  <si>
+    <t>C'est un site français, la langue choisie augmente le référencement</t>
+  </si>
+  <si>
+    <t>Attribuer la langue qui correspond au site</t>
+  </si>
+  <si>
+    <t>Changer "default" par "fr"</t>
+  </si>
+  <si>
+    <t>https://fr.w3docs.com/snippets/css/comment-et-quand-on-doit-utiliser-la-regle-important-en-css.html</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser !important car on va vite se retrouver avec un feuille remplie de !important</t>
+  </si>
+  <si>
+    <t>Préférer la spécificité que l'emploi de !important</t>
+  </si>
+  <si>
+    <t>Un texte hors écran ne pourra pas être vu dans sa totalité par l'utilisateur, le site ne sera pas responsive</t>
+  </si>
+  <si>
+    <t>Toujours faire en sorte que chaque élément de la page soit visible en desktop et en mobile</t>
+  </si>
+  <si>
+    <t>Ajuster taille des blocs</t>
+  </si>
+  <si>
+    <t>Les images n'occupaient pas la totalité de l'écran</t>
+  </si>
+  <si>
+    <t>Toujours donner une taille aux images présentes dans notre fichier</t>
+  </si>
+  <si>
+    <t>Donner une taille aux images</t>
+  </si>
+  <si>
+    <t>margin : auto auto auto auto</t>
+  </si>
+  <si>
+    <t>Logos en colonne au lieu d'être en ligne</t>
+  </si>
+  <si>
+    <t>Limiter au maximum la prise de place inutile sur la version mobile</t>
+  </si>
+  <si>
+    <t>Aligner les icônes</t>
+  </si>
+  <si>
+    <t>Répétition de "auto", pixels inutiles</t>
+  </si>
+  <si>
+    <t>Si une valeur est la même pour les quatre coin, n'en mettre qu'une au lieu de quatre</t>
+  </si>
+  <si>
+    <t>Ne mettre que un "auto"</t>
+  </si>
+  <si>
+    <t>Présence de valeur avec beaucoup de chiffre après la virgule</t>
+  </si>
+  <si>
+    <t>Plus il y a de chiffre après la virgule, plus cela rajoute des pixel</t>
+  </si>
+  <si>
+    <t>La fonction "calc" permet d'effectuer des calculs pour obtenir ce genre de résultat</t>
+  </si>
+  <si>
+    <t>Remplacer ces valeurs par la fonction calc</t>
+  </si>
+  <si>
+    <t>La police de certains textes est trop petite pour être agréable à lire</t>
+  </si>
+  <si>
+    <t>Toujours attribuer un font size agréable pour lire sans problème</t>
+  </si>
+  <si>
+    <t>Ajuster le font-size</t>
+  </si>
+  <si>
+    <t>Suppression des "!important", les remplacer par la spécificité</t>
+  </si>
+  <si>
+    <t>https://www.alsacreations.com/astuce/lire/1562-script-attribut-async-defer.html</t>
+  </si>
+  <si>
+    <t>Async - defer</t>
+  </si>
+  <si>
+    <t>link rel=”canonical</t>
+  </si>
+  <si>
+    <t>https://www.codeur.com/blog/seo-balise-canonical/</t>
+  </si>
+  <si>
+    <t>Pas de "Strong"</t>
+  </si>
+  <si>
+    <t>Accessibilité et SEO</t>
+  </si>
+  <si>
+    <t>à supprimer</t>
+  </si>
+  <si>
+    <t>Nom des images pas identifié</t>
+  </si>
+  <si>
+    <t>Le moteur de recherche trouvera plus facilement un site si ses images sont bien identifié</t>
+  </si>
+  <si>
+    <t>Pas de déscription pour les images</t>
+  </si>
+  <si>
+    <t>Redimensionner images</t>
+  </si>
+  <si>
+    <t>Texte caché + présence de style dans HTML</t>
+  </si>
+  <si>
+    <t>Toujours décrire une image avec "alt" et donner aux fichiers un nom précis</t>
+  </si>
+  <si>
+    <t>Formulaire label for</t>
+  </si>
+  <si>
+    <t>Ajout de texte pour icone sociaux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,11 +698,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -424,6 +730,26 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -459,9 +785,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,23 +798,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,17 +1035,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="38.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="39.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" style="3" customWidth="1"/>
     <col min="27" max="16384" width="11.33203125" style="3"/>
   </cols>
@@ -762,13 +1092,13 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -777,30 +1107,30 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>44</v>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -812,8 +1142,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -822,24 +1152,24 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -847,242 +1177,387 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2035,8 +2510,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:F3"/>
@@ -2045,9 +2518,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>